--- a/Интеллектуальные информационные системы/коханен/крокодайлы.xlsx
+++ b/Интеллектуальные информационные системы/коханен/крокодайлы.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\k1_502_05\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work 3\works\Интеллектуальные информационные системы\коханен\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16395" windowHeight="6030" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16395" windowHeight="6030" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="крокодайлы" sheetId="1" r:id="rId1"/>
@@ -666,10 +666,10 @@
     <xf numFmtId="167" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="7"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="7"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% — акцент1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -3932,16 +3932,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>116840</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>548640</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>30480</xdr:rowOff>
+      <xdr:rowOff>163830</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>421640</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>243840</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>34290</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4264,21 +4264,21 @@
   <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="29"/>
-      <c r="B1" s="29"/>
+      <c r="A1" s="30"/>
+      <c r="B1" s="30"/>
       <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="29"/>
+      <c r="E1" s="30"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
@@ -4892,20 +4892,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0.81035035807280453</v>
       </c>
@@ -4918,8 +4918,14 @@
       <c r="D2">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2">
+        <v>3</v>
+      </c>
+      <c r="F2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0.56747291082394813</v>
       </c>
@@ -4932,8 +4938,14 @@
       <c r="D3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0.97462167510558018</v>
       </c>
@@ -4946,8 +4958,14 @@
       <c r="D4">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0.43474906583117584</v>
       </c>
@@ -4960,8 +4978,14 @@
       <c r="D5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0.68110394247728723</v>
       </c>
@@ -4974,8 +4998,14 @@
       <c r="D6">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>0.76023144717059665</v>
       </c>
@@ -4985,11 +5015,17 @@
       <c r="C7">
         <v>3</v>
       </c>
-      <c r="D7" s="30">
+      <c r="D7" s="29">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>0.464006994670558</v>
       </c>
@@ -5002,8 +5038,14 @@
       <c r="D8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>0.72299069115311787</v>
       </c>
@@ -5016,8 +5058,14 @@
       <c r="D9">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>0.46256600669501985</v>
       </c>
@@ -5027,8 +5075,14 @@
       <c r="C10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>0.46675861955812287</v>
       </c>
@@ -5038,8 +5092,14 @@
       <c r="C11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>0.94393874476290762</v>
       </c>
@@ -5049,8 +5109,14 @@
       <c r="C12">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>0.70291041207656324</v>
       </c>
@@ -5060,8 +5126,14 @@
       <c r="C13">
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>0.69832385207532766</v>
       </c>
@@ -5071,8 +5143,14 @@
       <c r="C14">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>0.69444518336988648</v>
       </c>
@@ -5082,8 +5160,14 @@
       <c r="C15">
         <v>2</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>0.62252356582153867</v>
       </c>
@@ -5093,8 +5177,14 @@
       <c r="C16">
         <v>2</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>0.6464171544468531</v>
       </c>
@@ -5104,8 +5194,14 @@
       <c r="C17">
         <v>2</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>0.58946907005942284</v>
       </c>
@@ -5115,8 +5211,14 @@
       <c r="C18">
         <v>2</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>0.58500501229969648</v>
       </c>
@@ -5126,8 +5228,14 @@
       <c r="C19">
         <v>2</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>0.7622940791690036</v>
       </c>
@@ -5137,8 +5245,14 @@
       <c r="C20">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>0.6863835572484821</v>
       </c>
@@ -5148,8 +5262,14 @@
       <c r="C21">
         <v>2</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>0.49751211801033324</v>
       </c>
@@ -5159,8 +5279,14 @@
       <c r="C22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>0.48368611169012266</v>
       </c>
@@ -5170,8 +5296,14 @@
       <c r="C23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>0.86552653556436132</v>
       </c>
@@ -5181,8 +5313,14 @@
       <c r="C24">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>0.7498378553650924</v>
       </c>
@@ -5192,8 +5330,14 @@
       <c r="C25">
         <v>3</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>0.59001658934231005</v>
       </c>
@@ -5202,6 +5346,12 @@
       </c>
       <c r="C26">
         <v>2</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -5513,8 +5663,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="L67" sqref="L67"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6829,7 +6979,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
